--- a/LCDs/LCD pixel calc.xlsx
+++ b/LCDs/LCD pixel calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitHub\CodeGeneral\LCDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB59C201-8C38-4A92-B9C5-57686030833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009B3CC9-00BF-4DE3-B5C3-F4E313539025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,6 +121,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -137,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="202020"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -398,7 +466,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
